--- a/Tadata/funder_data.xlsx
+++ b/Tadata/funder_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harrietli/Documents/VScode/vscode101/Streamlit/DataPage/Tadata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harrietli/Documents/Repayment tools/vscode101/Tadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69CA5458-549D-8344-972A-1EBA93E7FB65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A5BA588-2130-3D4C-8163-950BBDDFD843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="50">
   <si>
     <t>USD</t>
   </si>
@@ -113,12 +113,6 @@
   </si>
   <si>
     <t>FP0050</t>
-  </si>
-  <si>
-    <t>001302843</t>
-  </si>
-  <si>
-    <t>FP0051</t>
   </si>
   <si>
     <t>001302852</t>
@@ -547,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -573,13 +567,13 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -770,24 +764,24 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -815,10 +809,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>0</v>
@@ -832,17 +826,6 @@
         <v>2</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C25" s="1" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Tadata/funder_data.xlsx
+++ b/Tadata/funder_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harrietli/Documents/Repayment tools/vscode101/Tadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A5BA588-2130-3D4C-8163-950BBDDFD843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F57F6755-D21A-5648-91AF-2D0EE51C247C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>USD</t>
   </si>
@@ -49,114 +49,12 @@
     <t>CNY</t>
   </si>
   <si>
-    <t>001302737</t>
-  </si>
-  <si>
-    <t>FP0028</t>
-  </si>
-  <si>
-    <t>001302746</t>
-  </si>
-  <si>
-    <t>FP0040</t>
-  </si>
-  <si>
-    <t>001302755</t>
-  </si>
-  <si>
-    <t>FP0045</t>
-  </si>
-  <si>
-    <t>001302764</t>
-  </si>
-  <si>
-    <t>FP0045A</t>
-  </si>
-  <si>
-    <t>001302773</t>
-  </si>
-  <si>
-    <t>FP0045B</t>
-  </si>
-  <si>
-    <t>001302782</t>
-  </si>
-  <si>
-    <t>FP0046</t>
-  </si>
-  <si>
-    <t>001302798</t>
-  </si>
-  <si>
-    <t>FP0047</t>
-  </si>
-  <si>
-    <t>001302807</t>
-  </si>
-  <si>
-    <t>FP0048</t>
-  </si>
-  <si>
-    <t>001302816</t>
-  </si>
-  <si>
-    <t>FP0045C</t>
-  </si>
-  <si>
-    <t>001302825</t>
-  </si>
-  <si>
-    <t>FP0049</t>
-  </si>
-  <si>
-    <t>001302834</t>
-  </si>
-  <si>
-    <t>FP0050</t>
-  </si>
-  <si>
-    <t>001302852</t>
-  </si>
-  <si>
-    <t>FP0052</t>
-  </si>
-  <si>
-    <t>001302861</t>
-  </si>
-  <si>
-    <t>FP0044</t>
-  </si>
-  <si>
-    <t>001302870</t>
-  </si>
-  <si>
-    <t>FP0003</t>
-  </si>
-  <si>
-    <t>001302889</t>
-  </si>
-  <si>
-    <t>FP0006</t>
-  </si>
-  <si>
     <t>001302895</t>
   </si>
   <si>
     <t>FP0053</t>
   </si>
   <si>
-    <t>001302904</t>
-  </si>
-  <si>
-    <t>FP0045D</t>
-  </si>
-  <si>
-    <t>001302913</t>
-  </si>
-  <si>
-    <t>FP0055</t>
-  </si>
-  <si>
     <t>001302922</t>
   </si>
   <si>
@@ -170,6 +68,9 @@
   </si>
   <si>
     <t>LMS Amt</t>
+  </si>
+  <si>
+    <t>HKD</t>
   </si>
 </sst>
 </file>
@@ -541,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -567,13 +468,13 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -600,32 +501,32 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>0</v>
@@ -633,199 +534,23 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+      <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C24" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
